--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -97,7 +97,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、springMvc；5、RequestMethod.get（直接在浏览器输入请求路径）</t>
+    <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、springMvc；5、RequestMethod.get（直接在浏览器输入请求路径或者用MockMvc测试）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、springMvc；5、RequestMethod.get（直接在浏览器输入请求路径或者用MockMvc测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daoStudy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、log4j2；3、servlet；4、dao增删改查；5、MySQL；6、接口；7、工厂类；8、出入参数和分页查询还有错误码的实体封装；9、注解请求；10、页面发起请求；11、ajax；12、实体类转JSON字符串；13、jquery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,10 +170,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -448,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -538,9 +549,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -105,7 +105,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、gradle；2、log4j2；3、servlet；4、dao增删改查；5、MySQL；6、接口；7、工厂类；8、出入参数和分页查询还有错误码的实体封装；9、注解请求；10、页面发起请求；11、ajax；12、实体类转JSON字符串；13、jquery</t>
+    <t>1、gradle；2、log4j2；3、servlet；4、dao增删改查；5、MySQL；6、接口；7、工厂类；8、出入参数和分页查询还有错误码的实体封装；9、注解请求；10、页面发起请求；11、ajax；12、实体类转JSON字符串；13、jquery；14、properties配置文件的读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,14 @@
   </si>
   <si>
     <t>1、gradle；2、log4j2；3、servlet；4、dao增删改查；5、MySQL；6、接口；7、工厂类；8、出入参数和分页查询还有错误码的实体封装；9、注解请求；10、页面发起请求；11、ajax；12、实体类转JSON字符串；13、jquery；14、properties配置文件的读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springMvc01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、springMvc；5、get、post表单请求；6、参数的三种接收方式（表单、路径变量、参数查询）；7、视图解释器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -558,8 +566,12 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -113,7 +113,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、springMvc；5、get、post表单请求；6、参数的三种接收方式（表单、路径变量、参数查询）；7、视图解释器</t>
+    <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、springMvc；5、get、post表单请求；6、参数的三种接收方式（表单、路径变量、参数查询）；7、视图解释器；8、spring使用hibernate的参数校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +468,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,35 +85,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>springMvc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、Redis；5、微信项目;6、ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daoStudy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springMvc01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、springMvc；5、get、post表单请求；6、参数的三种接收方式（表单、路径变量、参数查询）；7、视图解释器；8、spring使用hibernate的参数校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、log4j2；3、servlet；4、dao增删改查；5、MySQL；6、接口；7、工厂类；8、出入参数和分页查询还有错误码的实体封装；9、注解请求；10、页面发起请求；11、ajax；12、实体类转JSON字符串；13、jquery；14、properties配置文件的读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、springMvc；5、RequestMethod.get（直接在浏览器输入请求路径或者用MockMvc测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、gradle；2、applicationContext.xml配置spring；3、用JUnit4测试Spring；4、spring aop面向切面：前置通知，后置通知，返回通知，抛出异常通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>springMvc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、Redis；5、微信项目;6、ajax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、springMvc；5、RequestMethod.get（直接在浏览器输入请求路径或者用MockMvc测试）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daoStudy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、gradle；2、log4j2；3、servlet；4、dao增删改查；5、MySQL；6、接口；7、工厂类；8、出入参数和分页查询还有错误码的实体封装；9、注解请求；10、页面发起请求；11、ajax；12、实体类转JSON字符串；13、jquery；14、properties配置文件的读取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>springMvc01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、springMvc；5、get、post表单请求；6、参数的三种接收方式（表单、路径变量、参数查询）；7、视图解释器；8、spring使用hibernate的参数校验</t>
+    <t>springUpload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、页面发起post表单请求；6、文件上传（MultipartFile、StandardServletMultipartResolver）；7、视图解释器；8、web.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -498,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,20 +554,20 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>
@@ -567,15 +575,19 @@
     </row>
     <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -121,7 +121,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、页面发起post表单请求；6、文件上传（MultipartFile、StandardServletMultipartResolver）；7、视图解释器；8、web.xml</t>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、页面发起post表单请求；6、文件上传（MultipartFile、StandardServletMultipartResolver）；7、视图解释器；8、web.xml；9、请求参数中文乱码处理；10、spring父子容器（父子上下文）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、页面发起post表单请求；6、文件上传（MultipartFile、StandardServletMultipartResolver）；7、视图解释器；8、web.xml；9、请求参数中文乱码处理；10、spring父子容器（父子上下文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、异常处理；7、视图解释器；8、页面发起form请求，控制器来控制页面跳转；9、web.xml；10、请求参数中文乱码处理；11、spring父子容器（父子上下文）；12、springMVC控制器返回字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +484,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -589,9 +597,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,14 @@
   </si>
   <si>
     <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、异常处理；7、视图解释器；8、页面发起form请求，控制器来控制页面跳转；9、web.xml；10、请求参数中文乱码处理；11、spring父子容器（父子上下文）；12、springMVC控制器返回字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、mybatis7、视图解释器；8、ajax请求9、web.xml；10、请求参数中文乱码处理；11、jedis；12、springMVC控制器返回字符串；13、easyui(layout、tree)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easyuiLayout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -606,8 +614,12 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,13 @@
   </si>
   <si>
     <t>easyuiLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectPermission</t>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、mybatis；7、视图解释器；8、ajax请求9、web.xml；10、请求参数中文乱码处理；11、jedis；12、springMVC控制器返回字符串；13、easyui(layout、tree)；14、权限管理；15、js控制iframe子页面的元素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -622,8 +629,12 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -144,7 +144,7 @@
     <t>projectPermission</t>
   </si>
   <si>
-    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、mybatis；7、视图解释器；8、ajax请求9、web.xml；10、请求参数中文乱码处理；11、jedis；12、springMVC控制器返回字符串；13、easyui(layout、tree)；14、权限管理；15、js控制iframe子页面的元素</t>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、mybatis；7、视图解释器；8、ajax请求9、web.xml；10、请求参数中文乱码处理；11、jedis；12、springMVC控制器返回字符串；13、easyui(layout、tree)；14、权限管理；15、js控制iframe子页面的控件（处理有时候子页面未加载完获取不到控件的问题）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、mybatis7、视图解释器；8、ajax请求9、web.xml；10、请求参数中文乱码处理；11、jedis；12、springMVC控制器返回字符串；13、easyui(layout、tree)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>easyuiLayout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +141,10 @@
   </si>
   <si>
     <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、mybatis；7、视图解释器；8、ajax请求9、web.xml；10、请求参数中文乱码处理；11、jedis；12、springMVC控制器返回字符串；13、easyui(layout、tree)；14、权限管理；15、js控制iframe子页面的控件（处理有时候子页面未加载完获取不到控件的问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、mybatis7、视图解释器；8、ajax请求9、web.xml；10、请求参数中文乱码处理；11、springMVC控制器返回字符串；12、easyui(layout、tree)；13、权限管理；14、js控制iframe子页面的控件（处理有时候子页面未加载完获取不到控件的问题）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +499,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -620,20 +620,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,14 @@
   </si>
   <si>
     <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、mybatis7、视图解释器；8、ajax请求9、web.xml；10、请求参数中文乱码处理；11、springMVC控制器返回字符串；12、easyui(layout、tree)；13、权限管理；14、js控制iframe子页面的控件（处理有时候子页面未加载完获取不到控件的问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springHibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.（xml配置springweb层组件.xml、非web层组件.xml）；3、log4j2；4、springMvc；5、hibernate；6、请求参数中文乱码处理；7、web.xml；8、视图解释器；9、事务处理；10、mysql；11、Dao服务的基类；12、数据访问对象DAO；13、mockmvc结合Assert单元测试；15、通过注解实现入参校验（mockmvc测试的时候不起作用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -636,9 +644,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,22 @@
   </si>
   <si>
     <t>1、gradle；2、applicationContext.（xml配置springweb层组件.xml、非web层组件.xml）；3、log4j2；4、springMvc；5、hibernate；6、请求参数中文乱码处理；7、web.xml；8、视图解释器；9、事务处理；10、mysql；11、Dao服务的基类；12、数据访问对象DAO；13、mockmvc结合Assert单元测试；15、通过注解实现入参校验（mockmvc测试的时候不起作用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml配置spring（web层组件.xml、非web层组件.xml）；3、log4j2；4、请求参数中文乱码处理；5、；6、事务处理；7、mysql；8、mockmvc结合Assert单元测试；9、通过注解实现入参校验（mockmvc测试的时候应该不起作用）；10、JPA；11、EntityManager；12、springMvc；13、视图解释器；14、JPA混合SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springJpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、请求参数中文乱码处理；5、redis;6、spring+redisTemplate；7、service8、Assert单元测试；9、junit4；10、StringRedisTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springRedis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -652,13 +668,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+    <row r="18" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,66 +109,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、用JUnit4测试Spring；4、spring aop面向切面：前置通知，后置通知，返回通知，抛出异常通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springUpload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、页面发起post表单请求；6、文件上传（MultipartFile、StandardServletMultipartResolver）；7、视图解释器；8、web.xml；9、请求参数中文乱码处理；10、spring父子容器（父子上下文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、异常处理；7、视图解释器；8、页面发起form请求，控制器来控制页面跳转；9、web.xml；10、请求参数中文乱码处理；11、spring父子容器（父子上下文）；12、springMVC控制器返回字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easyuiLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectPermission</t>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、mybatis；7、视图解释器；8、ajax请求9、web.xml；10、请求参数中文乱码处理；11、jedis；12、springMVC控制器返回字符串；13、easyui(layout、tree)；14、权限管理；15、js控制iframe子页面的控件（处理有时候子页面未加载完获取不到控件的问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、mybatis7、视图解释器；8、ajax请求9、web.xml；10、请求参数中文乱码处理；11、springMVC控制器返回字符串；12、easyui(layout、tree)；13、权限管理；14、js控制iframe子页面的控件（处理有时候子页面未加载完获取不到控件的问题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springHibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.（xml配置springweb层组件.xml、非web层组件.xml）；3、log4j2；4、springMvc；5、hibernate；6、请求参数中文乱码处理；7、web.xml；8、视图解释器；9、事务处理；10、mysql；11、Dao服务的基类；12、数据访问对象DAO；13、mockmvc结合Assert单元测试；15、通过注解实现入参校验（mockmvc测试的时候不起作用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml配置spring（web层组件.xml、非web层组件.xml）；3、log4j2；4、请求参数中文乱码处理；5、；6、事务处理；7、mysql；8、mockmvc结合Assert单元测试；9、通过注解实现入参校验（mockmvc测试的时候应该不起作用）；10、JPA；11、EntityManager；12、springMvc；13、视图解释器；14、JPA混合SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springJpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、请求参数中文乱码处理；5、redis;6、spring+redisTemplate；7、service8、Assert单元测试；9、junit4；10、StringRedisTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springRedis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、springMvc；5、RequestMethod.get（直接在浏览器输入请求路径或者用MockMvc测试）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、gradle；2、applicationContext.xml配置spring；3、用JUnit4测试Spring；4、spring aop面向切面：前置通知，后置通知，返回通知，抛出异常通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>springUpload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、页面发起post表单请求；6、文件上传（MultipartFile、StandardServletMultipartResolver）；7、视图解释器；8、web.xml；9、请求参数中文乱码处理；10、spring父子容器（父子上下文）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>springException</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、异常处理；7、视图解释器；8、页面发起form请求，控制器来控制页面跳转；9、web.xml；10、请求参数中文乱码处理；11、spring父子容器（父子上下文）；12、springMVC控制器返回字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>easyuiLayout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectPermission</t>
-  </si>
-  <si>
-    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、mybatis；7、视图解释器；8、ajax请求9、web.xml；10、请求参数中文乱码处理；11、jedis；12、springMVC控制器返回字符串；13、easyui(layout、tree)；14、权限管理；15、js控制iframe子页面的控件（处理有时候子页面未加载完获取不到控件的问题）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、gradle；2、applicationContext.xml配置spring；3、log4j2；4、springMvc；5、ajax发起get请求；6、mybatis7、视图解释器；8、ajax请求9、web.xml；10、请求参数中文乱码处理；11、springMVC控制器返回字符串；12、easyui(layout、tree)；13、权限管理；14、js控制iframe子页面的控件（处理有时候子页面未加载完获取不到控件的问题）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>springHibernate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、gradle；2、applicationContext.（xml配置springweb层组件.xml、非web层组件.xml）；3、log4j2；4、springMvc；5、hibernate；6、请求参数中文乱码处理；7、web.xml；8、视图解释器；9、事务处理；10、mysql；11、Dao服务的基类；12、数据访问对象DAO；13、mockmvc结合Assert单元测试；15、通过注解实现入参校验（mockmvc测试的时候不起作用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、gradle；2、applicationContext.xml配置spring（web层组件.xml、非web层组件.xml）；3、log4j2；4、请求参数中文乱码处理；5、；6、事务处理；7、mysql；8、mockmvc结合Assert单元测试；9、通过注解实现入参校验（mockmvc测试的时候应该不起作用）；10、JPA；11、EntityManager；12、springMvc；13、视图解释器；14、JPA混合SQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>springJpa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、gradle；2、javaConfig配置spring；3、log4j2；4、请求参数中文乱码处理；5、redis;6、spring+redisTemplate；7、service8、Assert单元测试；9、junit4；10、StringRedisTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>springRedis</t>
+    <t>springREST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、applicationContext.xml（xml配置springweb层组件.xml、非web层组件.xml）；3、log4j2；4、springMvc；5、REST服务端和客户端；6、BaseController；7、@ExceptionHandler捕获处理异常；8、错误码类；9、配置错误码类的常量类；10、自定义异常类；11、@ResponseBody；12、返回类的基类；13、Assert断言；14、BeanUtils.populate(user,map)[map转换成javabean]；15、@RequestBody；16、REST服务端获取当前uri；17、REST服务端设置头信息；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -601,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +617,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
@@ -630,63 +638,67 @@
     </row>
     <row r="13" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>

--- a/项目描述.xlsx
+++ b/项目描述.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,14 @@
   </si>
   <si>
     <t>1、gradle；2、applicationContext.xml（xml配置springweb层组件.xml、非web层组件.xml）；3、log4j2；4、springMvc；5、REST服务端和客户端；6、BaseController；7、@ExceptionHandler捕获处理异常；8、错误码类；9、配置错误码类的常量类；10、自定义异常类；11、@ResponseBody；12、返回类的基类；13、Assert断言；14、BeanUtils.populate(user,map)[map转换成javabean]；15、@RequestBody；16、REST服务端获取当前uri；17、REST服务端设置头信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringbootdemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、gradle；2、REST服务；3、springboot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +539,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -701,8 +709,12 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
